--- a/Notebooks/13_Words_unicu.xlsx
+++ b/Notebooks/13_Words_unicu.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
   <si>
     <t>correct cuts</t>
   </si>
@@ -54,16 +54,28 @@
     <t>c</t>
   </si>
   <si>
-    <t>missing a bit of n, bit the cut is good, it is just a calligraphy error</t>
-  </si>
-  <si>
     <t>nearly a good cut, but the pipelines get it right</t>
   </si>
   <si>
-    <t>they got it!</t>
-  </si>
-  <si>
     <t>nealy a bad cut, but they all fail to recognize the letter</t>
+  </si>
+  <si>
+    <t>word:</t>
+  </si>
+  <si>
+    <t>unicu</t>
+  </si>
+  <si>
+    <t>the cut is not completely wrong</t>
+  </si>
+  <si>
+    <t>tutte le pipeline riconoscono la parola corretta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra altre varianti la pipeline 2 oltre a unicu propone umcu e u-ucu. </t>
+  </si>
+  <si>
+    <t>le altre pipeline hanno troppi falsi positivi per elencare tutte le varianti</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +520,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -517,13 +529,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -546,25 +558,22 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -584,104 +593,89 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6" t="s">
         <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
       <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
         <v>8</v>
       </c>
-      <c r="P7" t="s">
-        <v>1</v>
-      </c>
       <c r="Q7" t="s">
         <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -689,112 +683,127 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
         <v>11</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
         <v>8</v>
       </c>
-      <c r="S9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L10">
+      <c r="S10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L11">
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
         <v>13</v>
       </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L12">
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="P12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L13">
-        <v>15</v>
-      </c>
       <c r="P13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P14" t="s">
         <v>7</v>
@@ -811,16 +820,16 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="s">
         <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -828,16 +837,16 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="s">
         <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -845,7 +854,7 @@
     </row>
     <row r="17" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" t="s">
         <v>7</v>
@@ -862,7 +871,7 @@
     </row>
     <row r="18" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" t="s">
         <v>7</v>
@@ -879,16 +888,16 @@
     </row>
     <row r="19" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
         <v>7</v>
       </c>
       <c r="R19" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -896,16 +905,16 @@
     </row>
     <row r="20" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="s">
         <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -913,7 +922,7 @@
     </row>
     <row r="21" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
         <v>7</v>
@@ -930,7 +939,7 @@
     </row>
     <row r="22" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
         <v>7</v>
@@ -947,7 +956,7 @@
     </row>
     <row r="23" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
         <v>7</v>
@@ -964,16 +973,16 @@
     </row>
     <row r="24" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
         <v>7</v>
       </c>
       <c r="R24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -981,7 +990,7 @@
     </row>
     <row r="25" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P25" t="s">
         <v>10</v>
@@ -998,16 +1007,16 @@
     </row>
     <row r="26" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="s">
         <v>7</v>
       </c>
       <c r="R26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -1015,7 +1024,7 @@
     </row>
     <row r="27" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P27" t="s">
         <v>7</v>
@@ -1032,7 +1041,7 @@
     </row>
     <row r="28" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" t="s">
         <v>7</v>
@@ -1045,31 +1054,31 @@
       </c>
       <c r="S28" t="s">
         <v>7</v>
-      </c>
-      <c r="T28" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="s">
         <v>7</v>
       </c>
       <c r="R29" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P30" t="s">
         <v>1</v>
@@ -1086,7 +1095,7 @@
     </row>
     <row r="31" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L31">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P31" t="s">
         <v>1</v>
@@ -1103,18 +1112,35 @@
     </row>
     <row r="32" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L33">
         <v>37</v>
       </c>
-      <c r="P32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
         <v>7</v>
       </c>
     </row>
